--- a/documentation/overall_doc.xlsx
+++ b/documentation/overall_doc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrencetang/Desktop/Internships:Research/UROP/oilresearch/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AE055C3-1590-B84D-80D1-D9912E288896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAF9A652-8479-3540-B808-C7767AB90DB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="22020" windowHeight="10980" activeTab="1" xr2:uid="{97E67E35-FC92-4C02-ACE3-AB680D77D0F6}"/>
+    <workbookView xWindow="75800" yWindow="3220" windowWidth="22020" windowHeight="10980" xr2:uid="{97E67E35-FC92-4C02-ACE3-AB680D77D0F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -96,9 +96,6 @@
     <t>Section 2.5</t>
   </si>
   <si>
-    <t>Figure X</t>
-  </si>
-  <si>
     <t>monthly Brent crude oil prices vs commodity basket</t>
   </si>
   <si>
@@ -220,6 +217,9 @@
   </si>
   <si>
     <t>SEE FIG 4 DOCUUMENTATION</t>
+  </si>
+  <si>
+    <t>Figure 7</t>
   </si>
 </sst>
 </file>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F80ED720-6157-4B99-92EA-70A90854DEDE}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -628,7 +628,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -645,10 +645,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -659,13 +659,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -676,13 +676,13 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -693,13 +693,13 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -710,13 +710,13 @@
         <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -727,10 +727,10 @@
         <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>16</v>
@@ -738,16 +738,16 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
@@ -757,19 +757,19 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -791,8 +791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB85038-2C83-471D-9023-D4B81A4F2CEF}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -812,16 +812,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -832,13 +832,13 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -849,13 +849,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -866,16 +866,16 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -886,16 +886,16 @@
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" t="s">
         <v>36</v>
       </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -906,30 +906,30 @@
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
         <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -939,30 +939,30 @@
     </row>
     <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
